--- a/resfile.xlsx
+++ b/resfile.xlsx
@@ -14,7 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+  <si>
+    <t>枯</t>
+  </si>
+  <si>
+    <t>城</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>林</t>
+  </si>
+  <si>
+    <t>比</t>
+  </si>
   <si>
     <t>泗州实验学校</t>
   </si>
@@ -411,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,10 +452,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -445,51 +463,51 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -497,103 +515,103 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -601,28 +619,80 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
